--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,229 +40,286 @@
     <t>name</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>return</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>disappointing</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>use</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>helicopter</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thank</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>lego</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>everyone</t>
   </si>
   <si>
     <t>friends</t>
@@ -271,25 +328,19 @@
     <t>game</t>
   </si>
   <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>lots</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>learn</t>
   </si>
   <si>
     <t>recommend</t>
@@ -298,13 +349,13 @@
     <t>christmas</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>well</t>
@@ -668,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9932432432432432</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -779,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -787,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.971830985915493</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K4">
-        <v>0.8679245283018868</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9578947368421052</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.84375</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.956989247311828</v>
+        <v>0.9563106796116505</v>
       </c>
       <c r="C6">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D6">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>0.828125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9563106796116505</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C7">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K7">
-        <v>0.8214285714285714</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.921875</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>0.8153846153846154</v>
+        <v>0.8029045643153527</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>0.8029045643153527</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L9">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9130434782608695</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,28 +1159,28 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L10">
         <v>44</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8727272727272727</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,16 +1259,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>0.7956989247311828</v>
+        <v>0.7661406025824964</v>
       </c>
       <c r="L12">
-        <v>74</v>
+        <v>534</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>534</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8524590163934426</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>0.7546628407460545</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="L13">
-        <v>526</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>526</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8253968253968254</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>0.7155963302752294</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="L14">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8192771084337349</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>0.6545454545454545</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8181818181818182</v>
+        <v>0.859375</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6850152905198776</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7777777777777778</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K17">
         <v>0.6363636363636364</v>
@@ -1487,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7567567567567568</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K18">
         <v>0.6265060240963856</v>
@@ -1537,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7535545023696683</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C19">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>0.6155988857938719</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.746031746031746</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>0.6068376068376068</v>
+        <v>0.5921787709497207</v>
       </c>
       <c r="L20">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1626,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7319587628865979</v>
+        <v>0.7535545023696683</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>0.5853858784893268</v>
+        <v>0.5885245901639344</v>
       </c>
       <c r="L21">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="M21">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1676,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,16 +1759,16 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K22">
-        <v>0.5571428571428572</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6707317073170732</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>0.4867724867724867</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1779,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6521739130434783</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C24">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K24">
-        <v>0.426995457495133</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L24">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>883</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6388888888888888</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0.4202898550724637</v>
+        <v>0.45</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6379310344827587</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K26">
-        <v>0.4130434782608696</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6376811594202898</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,16 +2009,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K27">
-        <v>0.4083333333333333</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6336633663366337</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>0.3688524590163935</v>
+        <v>0.406371911573472</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>625</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>628</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2026,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>77</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6263736263736264</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K29">
-        <v>0.3663453111305872</v>
+        <v>0.3360655737704918</v>
       </c>
       <c r="L29">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2079,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>723</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5892857142857143</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K30">
-        <v>0.2337662337662338</v>
+        <v>0.3307017543859649</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2126,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>118</v>
+        <v>763</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5664556962025317</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="C31">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2155,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K31">
-        <v>0.2027972027972028</v>
+        <v>0.296</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2179,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2205,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K32">
-        <v>0.1423611111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2229,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>247</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2237,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5546218487394958</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2255,31 +2306,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>0.1330645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2287,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5178571428571429</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2305,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K34">
-        <v>0.1133333333333333</v>
+        <v>0.1742160278745645</v>
       </c>
       <c r="L34">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="M34">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="N34">
         <v>0.98</v>
@@ -2329,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>665</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2337,13 +2388,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4082278481012658</v>
+        <v>0.6347826086956522</v>
       </c>
       <c r="C35">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="D35">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2355,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K35">
-        <v>0.09597523219814241</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>0.97</v>
@@ -2379,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>292</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2387,13 +2438,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4057971014492754</v>
+        <v>0.625</v>
       </c>
       <c r="C36">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,31 +2456,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K36">
-        <v>0.09115281501340483</v>
+        <v>0.1417112299465241</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2437,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3825136612021858</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2455,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K37">
-        <v>0.07828282828282829</v>
+        <v>0.1327160493827161</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2479,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>365</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2487,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3707865168539326</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2505,7 +2556,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38">
+        <v>0.1188251001335113</v>
+      </c>
+      <c r="L38">
+        <v>89</v>
+      </c>
+      <c r="M38">
+        <v>92</v>
+      </c>
+      <c r="N38">
+        <v>0.97</v>
+      </c>
+      <c r="O38">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2513,13 +2588,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.34375</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="C39">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2531,7 +2606,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>84</v>
+        <v>37</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39">
+        <v>0.08838383838383838</v>
+      </c>
+      <c r="L39">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2539,13 +2638,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3307086614173229</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2557,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2565,13 +2664,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3247863247863248</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2583,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2591,13 +2690,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.305</v>
+        <v>0.5474683544303798</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2609,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2617,13 +2716,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2631578947368421</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2635,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2643,25 +2742,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2563338301043219</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C44">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>499</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2669,25 +2768,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.252212389380531</v>
+        <v>0.41</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D45">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>338</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2695,13 +2794,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2357142857142857</v>
+        <v>0.3840579710144927</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2713,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2721,25 +2820,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2114285714285714</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2747,25 +2846,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1993670886075949</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="C48">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>253</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2773,25 +2872,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1896024464831804</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C49">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>530</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2799,13 +2898,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1815561959654179</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <v>0.02</v>
@@ -2817,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>284</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2825,13 +2924,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1785714285714286</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2843,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2851,25 +2950,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1254480286738351</v>
+        <v>0.2598425196850394</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2877,25 +2976,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1236263736263736</v>
+        <v>0.2485119047619048</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="D53">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>319</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2903,13 +3002,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1134259259259259</v>
+        <v>0.2341040462427746</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>0.02</v>
@@ -2921,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>383</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2929,25 +3028,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09744779582366589</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>389</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2955,25 +3054,415 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08806818181818182</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C56">
         <v>31</v>
       </c>
       <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.2208201892744479</v>
+      </c>
+      <c r="C57">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>70</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.2180616740088106</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.2102803738317757</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>45</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.1813471502590674</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>38</v>
+      </c>
+      <c r="E60">
+        <v>0.08</v>
+      </c>
+      <c r="F60">
+        <v>0.92</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.166412213740458</v>
+      </c>
+      <c r="C61">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>109</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.1657754010695187</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
         <v>34</v>
       </c>
-      <c r="E56">
+      <c r="E62">
         <v>0.09</v>
       </c>
-      <c r="F56">
+      <c r="F62">
         <v>0.91</v>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>321</v>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.162303664921466</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>0.03</v>
+      </c>
+      <c r="F63">
+        <v>0.97</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.1263736263736264</v>
+      </c>
+      <c r="C64">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>47</v>
+      </c>
+      <c r="E64">
+        <v>0.02</v>
+      </c>
+      <c r="F64">
+        <v>0.98</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.1123188405797101</v>
+      </c>
+      <c r="C65">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>0.11</v>
+      </c>
+      <c r="F65">
+        <v>0.89</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.1121495327102804</v>
+      </c>
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <v>0.11</v>
+      </c>
+      <c r="F66">
+        <v>0.89</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.1054131054131054</v>
+      </c>
+      <c r="C67">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>0.1</v>
+      </c>
+      <c r="F67">
+        <v>0.9</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.09836065573770492</v>
+      </c>
+      <c r="C68">
+        <v>42</v>
+      </c>
+      <c r="D68">
+        <v>48</v>
+      </c>
+      <c r="E68">
+        <v>0.12</v>
+      </c>
+      <c r="F68">
+        <v>0.88</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.09634551495016612</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.05016722408026756</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>0.25</v>
+      </c>
+      <c r="F70">
+        <v>0.75</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.04949238578680203</v>
+      </c>
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <v>0.13</v>
+      </c>
+      <c r="F71">
+        <v>0.87</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
